--- a/data/trans_orig/P16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34518768-1236-49C1-898B-85775306BCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C24F30-D248-41C8-BF67-3AE7526C9B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{477A36E6-47AA-4DEE-8B21-E7F672B62042}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0701F96A-C726-451E-8446-6E425C1AFF9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="405">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -113,13 +113,13 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,73%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -128,25 +128,25 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,85%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,27%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,29%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,15%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -161,1117 +161,1099 @@
     <t>1,1%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAE1A2E-1949-4FEF-AE24-66E031BEC957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF3998C-8384-42BB-A4E7-7786C5F69BF2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2615,10 +2597,10 @@
         <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2615,13 @@
         <v>447126</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>554</v>
@@ -2648,13 +2630,13 @@
         <v>565624</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>1017</v>
@@ -2663,13 +2645,13 @@
         <v>1012750</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2719,13 @@
         <v>95292</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2752,13 +2734,13 @@
         <v>171532</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -2767,13 +2749,13 @@
         <v>266824</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,16 +2767,16 @@
         <v>3115</v>
       </c>
       <c r="D23" s="7">
-        <v>3180233</v>
+        <v>3180234</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>3133</v>
@@ -2803,28 +2785,28 @@
         <v>3207666</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>6248</v>
       </c>
       <c r="N23" s="7">
-        <v>6387898</v>
+        <v>6387899</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,7 +2818,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2866,7 +2848,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2880,7 +2862,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +2884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45B8A04-B9A9-400D-A64F-29FF6BCCDFD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D1B8A7-BC06-4DCD-8F4E-5C6D8BF7EEB4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2919,7 +2901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3032,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3041,13 +3023,13 @@
         <v>2198</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3056,13 +3038,13 @@
         <v>2198</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,7 +3062,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3092,10 +3074,10 @@
         <v>427141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3107,10 +3089,10 @@
         <v>880247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3181,13 +3163,13 @@
         <v>3873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3202,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3211,13 +3193,13 @@
         <v>3873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3214,13 @@
         <v>682365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -3250,7 +3232,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3262,13 +3244,13 @@
         <v>1291578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3318,13 @@
         <v>964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3351,13 +3333,13 @@
         <v>6871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3372,7 +3354,7 @@
         <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,10 +3369,10 @@
         <v>679090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3402,13 +3384,13 @@
         <v>699064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
@@ -3420,7 +3402,7 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
@@ -3491,13 +3473,13 @@
         <v>6214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3506,13 +3488,13 @@
         <v>16190</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3521,10 +3503,10 @@
         <v>22405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>168</v>
@@ -3548,7 +3530,7 @@
         <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -3572,13 +3554,13 @@
         <v>1206284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3628,13 @@
         <v>11809</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3661,13 +3643,13 @@
         <v>40789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -3676,13 +3658,13 @@
         <v>52599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3679,13 @@
         <v>416535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -3712,13 +3694,13 @@
         <v>407011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3727,13 +3709,13 @@
         <v>823545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3783,13 @@
         <v>48468</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -3816,13 +3798,13 @@
         <v>140470</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
@@ -3831,13 +3813,13 @@
         <v>188939</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3834,13 @@
         <v>508363</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>561</v>
@@ -3867,13 +3849,13 @@
         <v>598303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>1020</v>
@@ -3882,13 +3864,13 @@
         <v>1106665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3938,13 @@
         <v>71329</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3971,13 +3953,13 @@
         <v>206519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -3986,13 +3968,13 @@
         <v>277847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3989,13 @@
         <v>3347859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H23" s="7">
         <v>3095</v>
@@ -4022,13 +4004,13 @@
         <v>3338615</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" s="7">
         <v>6234</v>
@@ -4037,10 +4019,10 @@
         <v>6686475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>226</v>
@@ -4099,7 +4081,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4121,7 +4103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8264A037-66AC-45A2-B2E4-9F03F2E1CE67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E723B6E-3711-4EBD-9E6B-F56D7AA57550}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4406,7 +4388,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4454,7 +4436,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4573,10 +4555,10 @@
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4585,13 +4567,13 @@
         <v>5854</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,10 +4606,10 @@
         <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>1297</v>
@@ -4636,13 +4618,13 @@
         <v>1324629</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4692,13 @@
         <v>3281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4728,10 +4710,10 @@
         <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4740,13 +4722,13 @@
         <v>21527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,10 +4743,10 @@
         <v>642767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>240</v>
@@ -4776,28 +4758,28 @@
         <v>630830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>1165</v>
       </c>
       <c r="N14" s="7">
-        <v>1273598</v>
+        <v>1273599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4821,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4865,13 +4847,13 @@
         <v>10350</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4880,13 +4862,13 @@
         <v>27655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4895,13 +4877,13 @@
         <v>38005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4898,13 @@
         <v>467568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>408</v>
@@ -4931,13 +4913,13 @@
         <v>469194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>824</v>
@@ -4946,13 +4928,13 @@
         <v>936762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5002,13 @@
         <v>29502</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -5035,13 +5017,13 @@
         <v>82896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -5050,13 +5032,13 @@
         <v>112398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5053,13 @@
         <v>561826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>583</v>
@@ -5086,13 +5068,13 @@
         <v>695035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>1177</v>
@@ -5101,13 +5083,13 @@
         <v>1256861</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5157,13 @@
         <v>45195</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -5190,13 +5172,13 @@
         <v>134558</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -5205,13 +5187,13 @@
         <v>179753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5208,13 @@
         <v>3349155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>305</v>
       </c>
       <c r="H23" s="7">
         <v>3219</v>
@@ -5241,13 +5223,13 @@
         <v>3409984</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7">
         <v>6404</v>
@@ -5256,13 +5238,13 @@
         <v>6759139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,7 +5300,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5340,7 +5322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB21324C-69A7-4B71-B011-45748D2FD1FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D09BC6-0482-4AD6-ADF6-DF02C91F9ECF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5357,7 +5339,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5470,7 +5452,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5479,13 +5461,13 @@
         <v>5609</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5494,13 +5476,13 @@
         <v>5609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,7 +5500,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5530,10 +5512,10 @@
         <v>349348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5545,10 +5527,10 @@
         <v>727027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5619,13 +5601,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5634,13 +5616,13 @@
         <v>2801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5649,13 +5631,13 @@
         <v>4182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,10 +5652,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5685,13 +5667,13 @@
         <v>495776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -5700,13 +5682,13 @@
         <v>922791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5789,13 +5771,13 @@
         <v>7690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5804,13 +5786,13 @@
         <v>10313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,7 +5810,7 @@
         <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -5840,13 +5822,13 @@
         <v>574842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>1378</v>
@@ -5855,13 +5837,13 @@
         <v>1129471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5911,13 @@
         <v>13414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5944,13 +5926,13 @@
         <v>27310</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5959,13 +5941,13 @@
         <v>40725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5962,13 @@
         <v>710576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>1110</v>
@@ -5995,28 +5977,28 @@
         <v>719951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>1763</v>
       </c>
       <c r="N14" s="7">
-        <v>1430527</v>
+        <v>1430526</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6040,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6084,13 +6066,13 @@
         <v>15050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -6099,13 +6081,13 @@
         <v>42187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -6114,13 +6096,13 @@
         <v>57238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6117,13 @@
         <v>584036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>934</v>
@@ -6150,13 +6132,13 @@
         <v>551389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
@@ -6165,13 +6147,13 @@
         <v>1135424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,13 +6221,13 @@
         <v>33407</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
         <v>222</v>
@@ -6254,13 +6236,13 @@
         <v>125942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -6269,13 +6251,13 @@
         <v>159349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6272,13 @@
         <v>663072</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>385</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>1483</v>
@@ -6305,13 +6287,13 @@
         <v>899073</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>2459</v>
@@ -6320,13 +6302,13 @@
         <v>1562145</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,28 +6376,28 @@
         <v>65876</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>335</v>
       </c>
       <c r="I22" s="7">
-        <v>211540</v>
+        <v>211539</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>416</v>
@@ -6424,13 +6406,13 @@
         <v>277415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6427,13 @@
         <v>3317006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>5023</v>
@@ -6460,28 +6442,28 @@
         <v>3590379</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>406</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>8315</v>
       </c>
       <c r="N23" s="7">
-        <v>6907385</v>
+        <v>6907386</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,7 +6490,7 @@
         <v>5358</v>
       </c>
       <c r="I24" s="7">
-        <v>3801919</v>
+        <v>3801918</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6523,7 +6505,7 @@
         <v>8731</v>
       </c>
       <c r="N24" s="7">
-        <v>7184800</v>
+        <v>7184801</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6537,7 +6519,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C24F30-D248-41C8-BF67-3AE7526C9B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27BD9302-487C-468C-A70C-193CC20D1ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0701F96A-C726-451E-8446-6E425C1AFF9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{895A80E7-31DF-481E-A139-AB5992CC7E54}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="401">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -113,1135 +113,1123 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>93,57%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
   </si>
   <si>
     <t>95,12%</t>
@@ -1665,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF3998C-8384-42BB-A4E7-7786C5F69BF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6980C3A8-9B81-4328-812E-91244FCC03FE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2597,10 +2585,10 @@
         <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2603,13 @@
         <v>447126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>554</v>
@@ -2630,13 +2618,13 @@
         <v>565624</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>1017</v>
@@ -2645,13 +2633,13 @@
         <v>1012750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2707,13 @@
         <v>95292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2734,13 +2722,13 @@
         <v>171532</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -2749,13 +2737,13 @@
         <v>266824</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,16 +2755,16 @@
         <v>3115</v>
       </c>
       <c r="D23" s="7">
-        <v>3180234</v>
+        <v>3180233</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>3133</v>
@@ -2785,13 +2773,13 @@
         <v>3207666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="M23" s="7">
         <v>6248</v>
@@ -2818,7 +2806,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2884,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D1B8A7-BC06-4DCD-8F4E-5C6D8BF7EEB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E57949-B9E8-4F25-BE43-A1805AECF836}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3014,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3023,13 +3011,13 @@
         <v>2198</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3038,13 +3026,13 @@
         <v>2198</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3050,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3074,10 +3062,10 @@
         <v>427141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3089,10 +3077,10 @@
         <v>880247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3163,13 +3151,13 @@
         <v>3873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3184,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3193,13 +3181,13 @@
         <v>3873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3202,13 @@
         <v>682365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -3232,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3244,13 +3232,13 @@
         <v>1291578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3306,13 @@
         <v>964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3333,13 +3321,13 @@
         <v>6871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3354,7 +3342,7 @@
         <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,10 +3357,10 @@
         <v>679090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3384,7 +3372,7 @@
         <v>699064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>158</v>
@@ -3476,10 +3464,10 @@
         <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3488,13 +3476,13 @@
         <v>16190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3503,13 +3491,13 @@
         <v>22405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3512,13 @@
         <v>608403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -3539,13 +3527,13 @@
         <v>597882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>1065</v>
@@ -3554,13 +3542,13 @@
         <v>1206284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3616,13 @@
         <v>11809</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3643,13 +3631,13 @@
         <v>40789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -3658,10 +3646,10 @@
         <v>52599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>185</v>
@@ -3697,10 +3685,10 @@
         <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3709,13 +3697,13 @@
         <v>823545</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3771,13 @@
         <v>48468</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -3798,13 +3786,13 @@
         <v>140470</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
@@ -3813,13 +3801,13 @@
         <v>188939</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3822,13 @@
         <v>508363</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>561</v>
@@ -3849,13 +3837,13 @@
         <v>598303</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>1020</v>
@@ -3864,13 +3852,13 @@
         <v>1106665</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3926,13 @@
         <v>71329</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3953,13 +3941,13 @@
         <v>206519</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -3968,13 +3956,13 @@
         <v>277847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3977,13 @@
         <v>3347859</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H23" s="7">
         <v>3095</v>
@@ -4004,13 +3992,13 @@
         <v>3338615</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>6234</v>
@@ -4019,13 +4007,13 @@
         <v>6686475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E723B6E-3711-4EBD-9E6B-F56D7AA57550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE25A78-BC65-4CB3-91D1-095C251D6F74}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4120,7 +4108,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4233,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4248,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4263,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4269,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4296,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4311,7 +4299,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4388,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4397,13 +4385,13 @@
         <v>1969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4412,13 +4400,13 @@
         <v>1969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,7 +4424,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4448,10 +4436,10 @@
         <v>561575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4463,10 +4451,10 @@
         <v>1152071</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4543,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4555,10 +4543,10 @@
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4567,13 +4555,13 @@
         <v>5854</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,7 +4579,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4606,10 +4594,10 @@
         <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>1297</v>
@@ -4618,13 +4606,13 @@
         <v>1324629</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4680,13 @@
         <v>3281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4707,13 +4695,13 @@
         <v>18247</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4722,13 +4710,13 @@
         <v>21527</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4731,13 @@
         <v>642767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
@@ -4770,7 +4758,7 @@
         <v>1165</v>
       </c>
       <c r="N14" s="7">
-        <v>1273599</v>
+        <v>1273598</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>257</v>
@@ -4821,7 +4809,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4880,10 +4868,10 @@
         <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4886,13 @@
         <v>467568</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>408</v>
@@ -4913,13 +4901,13 @@
         <v>469194</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>824</v>
@@ -4928,13 +4916,13 @@
         <v>936762</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +4990,13 @@
         <v>29502</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -5017,13 +5005,13 @@
         <v>82896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -5032,13 +5020,13 @@
         <v>112398</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5041,13 @@
         <v>561826</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>583</v>
@@ -5068,13 +5056,13 @@
         <v>695035</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>1177</v>
@@ -5083,13 +5071,13 @@
         <v>1256861</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5145,13 @@
         <v>45195</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -5172,13 +5160,13 @@
         <v>134558</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -5187,13 +5175,13 @@
         <v>179753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5196,13 @@
         <v>3349155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="H23" s="7">
         <v>3219</v>
@@ -5223,13 +5211,13 @@
         <v>3409984</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>6404</v>
@@ -5238,13 +5226,13 @@
         <v>6759139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,7 +5310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D09BC6-0482-4AD6-ADF6-DF02C91F9ECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C241FE7-A6F1-4912-A543-16B1E46CAEB2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5339,7 +5327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5452,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5461,13 +5449,13 @@
         <v>5609</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5476,13 +5464,13 @@
         <v>5609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,7 +5488,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5512,10 +5500,10 @@
         <v>349348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5527,10 +5515,10 @@
         <v>727027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5601,13 +5589,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5616,13 +5604,13 @@
         <v>2801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5631,13 +5619,13 @@
         <v>4182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,10 +5640,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5667,13 +5655,13 @@
         <v>495776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -5682,13 +5670,13 @@
         <v>922791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5744,13 @@
         <v>2623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5771,13 +5759,13 @@
         <v>7690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5786,13 +5774,13 @@
         <v>10313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,10 +5795,10 @@
         <v>554629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -5822,13 +5810,13 @@
         <v>574842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>1378</v>
@@ -5837,13 +5825,13 @@
         <v>1129471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5899,13 @@
         <v>13414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5926,13 +5914,13 @@
         <v>27310</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5941,13 +5929,13 @@
         <v>40725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5950,13 @@
         <v>710576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>1110</v>
@@ -5977,13 +5965,13 @@
         <v>719951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>1763</v>
@@ -5992,13 +5980,13 @@
         <v>1430526</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6054,13 @@
         <v>15050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -6081,13 +6069,13 @@
         <v>42187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -6096,13 +6084,13 @@
         <v>57238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6105,13 @@
         <v>584036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>934</v>
@@ -6132,13 +6120,13 @@
         <v>551389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
@@ -6147,13 +6135,13 @@
         <v>1135424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6209,13 @@
         <v>33407</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
         <v>222</v>
@@ -6236,13 +6224,13 @@
         <v>125942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -6251,13 +6239,13 @@
         <v>159349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6260,13 @@
         <v>663072</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>1483</v>
@@ -6287,13 +6275,13 @@
         <v>899073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>2459</v>
@@ -6302,13 +6290,13 @@
         <v>1562145</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6364,13 @@
         <v>65876</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>335</v>
@@ -6391,13 +6379,13 @@
         <v>211539</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>416</v>
@@ -6406,13 +6394,13 @@
         <v>277415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6415,13 @@
         <v>3317006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H23" s="7">
         <v>5023</v>
@@ -6442,13 +6430,13 @@
         <v>3590379</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>206</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M23" s="7">
         <v>8315</v>
@@ -6457,13 +6445,13 @@
         <v>6907386</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27BD9302-487C-468C-A70C-193CC20D1ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D77267-7948-4D90-8282-89FB9CEFEDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{895A80E7-31DF-481E-A139-AB5992CC7E54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDB18025-1E38-45BE-AA66-F32C9E20BB46}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="411">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -113,13 +113,13 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -128,25 +128,25 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,89%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,14%</t>
+    <t>99,27%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,29%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,11%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -161,1087 +161,1117 @@
     <t>1,1%</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>96,54%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6980C3A8-9B81-4328-812E-91244FCC03FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D2DB4-725A-47B1-85D6-5536F4A8AAA7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2725,10 +2755,10 @@
         <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -2737,13 +2767,13 @@
         <v>266824</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2788,13 @@
         <v>3180233</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>3133</v>
@@ -2773,28 +2803,28 @@
         <v>3207666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>6248</v>
       </c>
       <c r="N23" s="7">
-        <v>6387899</v>
+        <v>6387898</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,7 +2866,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2850,7 +2880,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E57949-B9E8-4F25-BE43-A1805AECF836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D3DA92-BC2A-4164-85C9-454D31A60798}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2889,7 +2919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3002,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3011,13 +3041,13 @@
         <v>2198</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3026,13 +3056,13 @@
         <v>2198</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3062,10 +3092,10 @@
         <v>427141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3077,10 +3107,10 @@
         <v>880247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3151,13 +3181,13 @@
         <v>3873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3172,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3181,13 +3211,13 @@
         <v>3873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3232,13 @@
         <v>682365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -3220,7 +3250,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3232,13 +3262,13 @@
         <v>1291578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3336,13 @@
         <v>964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3321,13 +3351,13 @@
         <v>6871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3342,7 +3372,7 @@
         <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,10 +3387,10 @@
         <v>679090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3372,13 +3402,13 @@
         <v>699064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
@@ -3390,7 +3420,7 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
@@ -3461,13 +3491,13 @@
         <v>6214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3476,13 +3506,13 @@
         <v>16190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3491,13 +3521,13 @@
         <v>22405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3542,13 @@
         <v>608403</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -3527,13 +3557,13 @@
         <v>597882</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>1065</v>
@@ -3542,13 +3572,13 @@
         <v>1206284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3646,13 @@
         <v>11809</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3631,13 +3661,13 @@
         <v>40789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -3646,13 +3676,13 @@
         <v>52599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3697,13 @@
         <v>416535</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -3682,13 +3712,13 @@
         <v>407011</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3697,13 +3727,13 @@
         <v>823545</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3801,13 @@
         <v>48468</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -3786,13 +3816,13 @@
         <v>140470</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
@@ -3801,13 +3831,13 @@
         <v>188939</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3852,13 @@
         <v>508363</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>561</v>
@@ -3837,13 +3867,13 @@
         <v>598303</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>1020</v>
@@ -3852,13 +3882,13 @@
         <v>1106665</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3956,13 @@
         <v>71329</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3941,13 +3971,13 @@
         <v>206519</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -3956,10 +3986,10 @@
         <v>277847</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>217</v>
@@ -3998,7 +4028,7 @@
         <v>222</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="M23" s="7">
         <v>6234</v>
@@ -4007,13 +4037,13 @@
         <v>6686475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4099,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4091,7 +4121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE25A78-BC65-4CB3-91D1-095C251D6F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD71A4D-3428-4A63-8728-998CCA32668E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4108,7 +4138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4221,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4236,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4251,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4299,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4284,7 +4314,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4299,7 +4329,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4376,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4385,13 +4415,13 @@
         <v>1969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4400,13 +4430,13 @@
         <v>1969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,7 +4454,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4436,10 +4466,10 @@
         <v>561575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4451,10 +4481,10 @@
         <v>1152071</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4531,7 +4561,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4543,10 +4573,10 @@
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4555,13 +4585,13 @@
         <v>5854</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4594,10 +4624,10 @@
         <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
         <v>1297</v>
@@ -4606,13 +4636,13 @@
         <v>1324629</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4710,13 @@
         <v>3281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4695,10 +4725,10 @@
         <v>18247</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>249</v>
@@ -4731,13 +4761,13 @@
         <v>642767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
@@ -4746,13 +4776,13 @@
         <v>630830</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>1165</v>
@@ -4761,13 +4791,13 @@
         <v>1273598</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4865,13 @@
         <v>10350</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4850,13 +4880,13 @@
         <v>27655</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4865,13 +4895,13 @@
         <v>38005</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4916,13 @@
         <v>467568</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>408</v>
@@ -4901,13 +4931,13 @@
         <v>469194</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>824</v>
@@ -4916,13 +4946,13 @@
         <v>936762</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,10 +5023,10 @@
         <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -5005,13 +5035,13 @@
         <v>82896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -5020,13 +5050,13 @@
         <v>112398</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5071,13 @@
         <v>561826</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>583</v>
@@ -5056,13 +5086,13 @@
         <v>695035</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>1177</v>
@@ -5071,13 +5101,13 @@
         <v>1256861</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5175,13 @@
         <v>45195</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -5160,13 +5190,13 @@
         <v>134558</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -5175,13 +5205,13 @@
         <v>179753</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5226,13 @@
         <v>3349155</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>3219</v>
@@ -5211,10 +5241,10 @@
         <v>3409984</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>302</v>
@@ -5288,7 +5318,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5310,7 +5340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C241FE7-A6F1-4912-A543-16B1E46CAEB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA85B6A-AFE2-4062-916E-E6534F8E42F8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5440,7 +5470,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5449,13 +5479,13 @@
         <v>5609</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5464,7 +5494,7 @@
         <v>5609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -5488,7 +5518,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5500,10 +5530,10 @@
         <v>349348</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5515,7 +5545,7 @@
         <v>727027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>314</v>
@@ -5604,7 +5634,7 @@
         <v>2801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>317</v>
@@ -5619,13 +5649,13 @@
         <v>4182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,10 +5670,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5655,13 +5685,13 @@
         <v>495776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -5670,13 +5700,13 @@
         <v>922791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5774,13 @@
         <v>2623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5759,13 +5789,13 @@
         <v>7690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5774,13 +5804,13 @@
         <v>10313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,10 +5825,10 @@
         <v>554629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -5810,13 +5840,13 @@
         <v>574842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>1378</v>
@@ -5825,13 +5855,13 @@
         <v>1129471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5929,13 @@
         <v>13414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5914,13 +5944,13 @@
         <v>27310</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5929,13 +5959,13 @@
         <v>40725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5980,13 @@
         <v>710576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>1110</v>
@@ -5965,28 +5995,28 @@
         <v>719951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>1763</v>
       </c>
       <c r="N14" s="7">
-        <v>1430526</v>
+        <v>1430527</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,7 +6058,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6054,13 +6084,13 @@
         <v>15050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -6069,13 +6099,13 @@
         <v>42187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -6084,13 +6114,13 @@
         <v>57238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6135,13 @@
         <v>584036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>934</v>
@@ -6120,13 +6150,13 @@
         <v>551389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
@@ -6135,13 +6165,13 @@
         <v>1135424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,13 +6239,13 @@
         <v>33407</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>222</v>
@@ -6224,13 +6254,13 @@
         <v>125942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -6239,13 +6269,13 @@
         <v>159349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6290,13 @@
         <v>663072</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
         <v>1483</v>
@@ -6275,13 +6305,13 @@
         <v>899073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>2459</v>
@@ -6290,13 +6320,13 @@
         <v>1562145</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,28 +6394,28 @@
         <v>65876</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>335</v>
       </c>
       <c r="I22" s="7">
-        <v>211539</v>
+        <v>211540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>416</v>
@@ -6394,13 +6424,13 @@
         <v>277415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6445,13 @@
         <v>3317006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>403</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="H23" s="7">
         <v>5023</v>
@@ -6430,28 +6460,28 @@
         <v>3590379</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="M23" s="7">
         <v>8315</v>
       </c>
       <c r="N23" s="7">
-        <v>6907386</v>
+        <v>6907385</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,7 +6508,7 @@
         <v>5358</v>
       </c>
       <c r="I24" s="7">
-        <v>3801918</v>
+        <v>3801919</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6493,7 +6523,7 @@
         <v>8731</v>
       </c>
       <c r="N24" s="7">
-        <v>7184801</v>
+        <v>7184800</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6507,7 +6537,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D77267-7948-4D90-8282-89FB9CEFEDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63350A11-4A15-4158-A9D2-F663F46E31C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDB18025-1E38-45BE-AA66-F32C9E20BB46}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D7780B6F-9C0B-4634-8041-2203A72BC534}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="470">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -152,7 +152,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -197,7 +197,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -254,7 +254,7 @@
     <t>98,55%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>7,53%</t>
@@ -311,61 +311,118 @@
     <t>93,62%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>2,91%</t>
@@ -620,52 +677,112 @@
     <t>95,51%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>2,09%</t>
@@ -689,9 +806,6 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
     <t>4,45%</t>
   </si>
   <si>
@@ -719,9 +833,6 @@
     <t>95,55%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -863,52 +974,106 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -962,316 +1127,328 @@
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
 </sst>
 </file>
@@ -1683,8 +1860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D2DB4-725A-47B1-85D6-5536F4A8AAA7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E1027F-9966-4416-861C-9DF153AE26ED}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2576,10 +2753,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>55340</v>
+        <v>17532</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>91</v>
@@ -2591,10 +2768,10 @@
         <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>111218</v>
+        <v>53146</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>94</v>
@@ -2606,10 +2783,10 @@
         <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="N19" s="7">
-        <v>166558</v>
+        <v>70677</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>97</v>
@@ -2627,10 +2804,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>463</v>
+        <v>284</v>
       </c>
       <c r="D20" s="7">
-        <v>447126</v>
+        <v>275051</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>100</v>
@@ -2642,10 +2819,10 @@
         <v>102</v>
       </c>
       <c r="H20" s="7">
-        <v>554</v>
+        <v>314</v>
       </c>
       <c r="I20" s="7">
-        <v>565624</v>
+        <v>289788</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>103</v>
@@ -2657,10 +2834,10 @@
         <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>1017</v>
+        <v>598</v>
       </c>
       <c r="N20" s="7">
-        <v>1012750</v>
+        <v>564840</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>106</v>
@@ -2678,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2693,10 +2870,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2708,10 +2885,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2725,55 +2902,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>95292</v>
+        <v>37808</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7">
-        <v>171532</v>
+        <v>58072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="N22" s="7">
-        <v>266824</v>
+        <v>95880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,49 +2959,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3115</v>
+        <v>179</v>
       </c>
       <c r="D23" s="7">
-        <v>3180233</v>
+        <v>172075</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
-        <v>3133</v>
+        <v>240</v>
       </c>
       <c r="I23" s="7">
-        <v>3207666</v>
+        <v>275836</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
-        <v>6248</v>
+        <v>419</v>
       </c>
       <c r="N23" s="7">
-        <v>6387898</v>
+        <v>447911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,63 +3010,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7">
+        <v>95292</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7">
+        <v>164</v>
+      </c>
+      <c r="I25" s="7">
+        <v>171532</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7">
+        <v>262</v>
+      </c>
+      <c r="N25" s="7">
+        <v>266824</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3115</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3180233</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3133</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3207665</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6248</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6387898</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>127</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2902,8 +3235,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D3DA92-BC2A-4164-85C9-454D31A60798}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B47C42-FD26-4D85-98A3-18327B176D05}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2919,7 +3252,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3032,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3041,13 +3374,13 @@
         <v>2198</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3056,13 +3389,13 @@
         <v>2198</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,7 +3413,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3092,10 +3425,10 @@
         <v>427141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3107,10 +3440,10 @@
         <v>880247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3181,13 +3514,13 @@
         <v>3873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3202,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3211,13 +3544,13 @@
         <v>3873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3565,13 @@
         <v>682365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -3250,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3262,13 +3595,13 @@
         <v>1291578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3669,13 @@
         <v>964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3351,13 +3684,13 @@
         <v>6871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3372,7 +3705,7 @@
         <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,10 +3720,10 @@
         <v>679090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3402,13 +3735,13 @@
         <v>699064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
@@ -3420,7 +3753,7 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
@@ -3491,13 +3824,13 @@
         <v>6214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3506,13 +3839,13 @@
         <v>16190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3521,13 +3854,13 @@
         <v>22405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3875,13 @@
         <v>608403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -3557,13 +3890,13 @@
         <v>597882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>1065</v>
@@ -3572,10 +3905,10 @@
         <v>1206284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>50</v>
@@ -3646,13 +3979,13 @@
         <v>11809</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3661,13 +3994,13 @@
         <v>40789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -3676,13 +4009,13 @@
         <v>52599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +4030,13 @@
         <v>416535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -3712,13 +4045,13 @@
         <v>407011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3727,13 +4060,13 @@
         <v>823545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,49 +4128,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>48468</v>
+        <v>14472</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="I19" s="7">
-        <v>140470</v>
+        <v>54345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="N19" s="7">
-        <v>188939</v>
+        <v>68817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,49 +4179,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>459</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7">
-        <v>508363</v>
+        <v>293323</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
-        <v>561</v>
+        <v>292</v>
       </c>
       <c r="I20" s="7">
-        <v>598303</v>
+        <v>298714</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
-        <v>1020</v>
+        <v>560</v>
       </c>
       <c r="N20" s="7">
-        <v>1106665</v>
+        <v>592037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,10 +4230,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>556831</v>
+        <v>307795</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3912,10 +4245,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>690</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>738773</v>
+        <v>353059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3927,10 +4260,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1192</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1295604</v>
+        <v>660854</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3944,55 +4277,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>71329</v>
+        <v>33996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="I22" s="7">
-        <v>206519</v>
+        <v>86125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="N22" s="7">
-        <v>277847</v>
+        <v>120121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,49 +4334,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3139</v>
+        <v>191</v>
       </c>
       <c r="D23" s="7">
-        <v>3347859</v>
+        <v>215040</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
-        <v>3095</v>
+        <v>269</v>
       </c>
       <c r="I23" s="7">
-        <v>3338615</v>
+        <v>299589</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
-        <v>6234</v>
+        <v>460</v>
       </c>
       <c r="N23" s="7">
-        <v>6686475</v>
+        <v>514629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,63 +4385,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>385714</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>634750</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7">
+        <v>71329</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" s="7">
+        <v>191</v>
+      </c>
+      <c r="I25" s="7">
+        <v>206519</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M25" s="7">
+        <v>254</v>
+      </c>
+      <c r="N25" s="7">
+        <v>277847</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3139</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3347859</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3095</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3338615</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6234</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6686475</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3202</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3419188</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3286</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3545134</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6488</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6964322</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>127</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4121,8 +4610,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD71A4D-3428-4A63-8728-998CCA32668E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1169B463-0799-494C-8968-211DD3FB353A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4138,7 +4627,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4251,7 +4740,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4266,7 +4755,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4281,7 +4770,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,7 +4788,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4314,7 +4803,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4329,7 +4818,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4406,7 +4895,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4415,13 +4904,13 @@
         <v>1969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4430,13 +4919,13 @@
         <v>1969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,7 +4943,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4466,10 +4955,10 @@
         <v>561575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4481,10 +4970,10 @@
         <v>1152071</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4561,7 +5050,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4573,7 +5062,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>57</v>
@@ -4588,10 +5077,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,7 +5098,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4627,7 +5116,7 @@
         <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1297</v>
@@ -4639,10 +5128,10 @@
         <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +5199,13 @@
         <v>3281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4725,13 +5214,13 @@
         <v>18247</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4740,13 +5229,13 @@
         <v>21527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +5250,13 @@
         <v>642767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
@@ -4776,13 +5265,13 @@
         <v>630830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>1165</v>
@@ -4791,13 +5280,13 @@
         <v>1273598</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +5354,13 @@
         <v>10350</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4880,13 +5369,13 @@
         <v>27655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4895,13 +5384,13 @@
         <v>38005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +5405,13 @@
         <v>467568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>408</v>
@@ -4931,13 +5420,13 @@
         <v>469194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>824</v>
@@ -4946,13 +5435,13 @@
         <v>936762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,49 +5503,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>29502</v>
+        <v>9945</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>82896</v>
+        <v>35019</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="N19" s="7">
-        <v>112398</v>
+        <v>44964</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +5554,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>594</v>
+        <v>315</v>
       </c>
       <c r="D20" s="7">
-        <v>561826</v>
+        <v>324385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
-        <v>583</v>
+        <v>320</v>
       </c>
       <c r="I20" s="7">
-        <v>695035</v>
+        <v>342743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
-        <v>1177</v>
+        <v>635</v>
       </c>
       <c r="N20" s="7">
-        <v>1256861</v>
+        <v>667128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +5605,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5131,10 +5620,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5146,10 +5635,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5163,55 +5652,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>45195</v>
+        <v>19556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="I22" s="7">
-        <v>134558</v>
+        <v>47878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="N22" s="7">
-        <v>179753</v>
+        <v>67434</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +5709,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3185</v>
+        <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>3349155</v>
+        <v>237442</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="H23" s="7">
-        <v>3219</v>
+        <v>263</v>
       </c>
       <c r="I23" s="7">
-        <v>3409984</v>
+        <v>352291</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="M23" s="7">
-        <v>6404</v>
+        <v>542</v>
       </c>
       <c r="N23" s="7">
-        <v>6759139</v>
+        <v>589733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,63 +5760,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45195</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H25" s="7">
+        <v>119</v>
+      </c>
+      <c r="I25" s="7">
+        <v>134558</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M25" s="7">
+        <v>165</v>
+      </c>
+      <c r="N25" s="7">
+        <v>179753</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3185</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3349155</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3219</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3409984</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6404</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6759139</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>127</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5340,8 +5985,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA85B6A-AFE2-4062-916E-E6534F8E42F8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28372C75-BD85-4DB3-8A64-567300311E0D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5357,7 +6002,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5470,37 +6115,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>5609</v>
+        <v>4297</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>5609</v>
+        <v>4297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +6157,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5527,13 +6172,13 @@
         <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>349348</v>
+        <v>308903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5542,13 +6187,13 @@
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>727027</v>
+        <v>708890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5563,7 +6208,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5578,7 +6223,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5593,7 +6238,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5616,46 +6261,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1381</v>
+        <v>1268</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2801</v>
+        <v>2615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>4182</v>
+        <v>3884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +6312,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>427015</v>
+        <v>422279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5682,31 +6327,31 @@
         <v>457</v>
       </c>
       <c r="I8" s="7">
-        <v>495776</v>
+        <v>508889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>922791</v>
+        <v>931167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,7 +6363,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5733,7 +6378,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5748,7 +6393,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5771,46 +6416,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2623</v>
+        <v>2397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>7690</v>
+        <v>7184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>10313</v>
+        <v>9581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +6467,13 @@
         <v>544</v>
       </c>
       <c r="D11" s="7">
-        <v>554629</v>
+        <v>533941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -5837,31 +6482,31 @@
         <v>834</v>
       </c>
       <c r="I11" s="7">
-        <v>574842</v>
+        <v>534408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>1378</v>
       </c>
       <c r="N11" s="7">
-        <v>1129471</v>
+        <v>1068349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,7 +6518,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5888,7 +6533,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582532</v>
+        <v>541592</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5903,7 +6548,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1139784</v>
+        <v>1077930</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5926,46 +6571,46 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>13414</v>
+        <v>12812</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>27310</v>
+        <v>23211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>40725</v>
+        <v>36022</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,46 +6622,46 @@
         <v>653</v>
       </c>
       <c r="D14" s="7">
-        <v>710576</v>
+        <v>874974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>1110</v>
       </c>
       <c r="I14" s="7">
-        <v>719951</v>
+        <v>689670</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1763</v>
       </c>
       <c r="N14" s="7">
-        <v>1430527</v>
+        <v>1564645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,7 +6673,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6043,7 +6688,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6058,7 +6703,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6081,46 +6726,46 @@
         <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>15050</v>
+        <v>13473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>42187</v>
+        <v>37533</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
       </c>
       <c r="N16" s="7">
-        <v>57238</v>
+        <v>51006</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,46 +6777,46 @@
         <v>646</v>
       </c>
       <c r="D17" s="7">
-        <v>584036</v>
+        <v>546764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>934</v>
       </c>
       <c r="I17" s="7">
-        <v>551389</v>
+        <v>507354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
       </c>
       <c r="N17" s="7">
-        <v>1135424</v>
+        <v>1054118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,7 +6828,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6198,7 +6843,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6213,7 +6858,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6233,49 +6878,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>33407</v>
+        <v>11597</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="I19" s="7">
-        <v>125942</v>
+        <v>51818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="N19" s="7">
-        <v>159349</v>
+        <v>63414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,49 +6929,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>976</v>
+        <v>549</v>
       </c>
       <c r="D20" s="7">
-        <v>663072</v>
+        <v>355853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
-        <v>1483</v>
+        <v>723</v>
       </c>
       <c r="I20" s="7">
-        <v>899073</v>
+        <v>556550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
-        <v>2459</v>
+        <v>1272</v>
       </c>
       <c r="N20" s="7">
-        <v>1562145</v>
+        <v>912404</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,10 +6980,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696479</v>
+        <v>367450</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6350,10 +6995,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6365,10 +7010,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2731</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1721494</v>
+        <v>975818</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6382,55 +7027,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>65876</v>
+        <v>19062</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
-        <v>335</v>
+        <v>118</v>
       </c>
       <c r="I22" s="7">
-        <v>211540</v>
+        <v>59674</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
-        <v>416</v>
+        <v>148</v>
       </c>
       <c r="N22" s="7">
-        <v>277415</v>
+        <v>78736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,49 +7084,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3292</v>
+        <v>427</v>
       </c>
       <c r="D23" s="7">
-        <v>3317006</v>
+        <v>263207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
-        <v>5023</v>
+        <v>760</v>
       </c>
       <c r="I23" s="7">
-        <v>3590379</v>
+        <v>364720</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="M23" s="7">
-        <v>8315</v>
+        <v>1187</v>
       </c>
       <c r="N23" s="7">
-        <v>6907385</v>
+        <v>627927</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,63 +7135,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282269</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706663</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7">
+        <v>60609</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H25" s="7">
+        <v>335</v>
+      </c>
+      <c r="I25" s="7">
+        <v>186333</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="M25" s="7">
+        <v>416</v>
+      </c>
+      <c r="N25" s="7">
+        <v>246942</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3292</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3397006</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5023</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3470494</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8315</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6867499</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3373</v>
       </c>
-      <c r="D24" s="7">
-        <v>3382882</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3457615</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801919</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3656827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8731</v>
       </c>
-      <c r="N24" s="7">
-        <v>7184800</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>127</v>
+      <c r="N27" s="7">
+        <v>7114441</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
